--- a/Data/for_lab/count_bloodsamples_for_lene.xlsx
+++ b/Data/for_lab/count_bloodsamples_for_lene.xlsx
@@ -405,8 +405,10 @@
       <c r="B2" s="2">
         <v>44753</v>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10:11:00</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -431,8 +433,10 @@
       <c r="B3" s="2">
         <v>44760</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12:35:00</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -457,8 +461,10 @@
       <c r="B4" s="2">
         <v>44872</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>09:40:00</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -483,8 +489,10 @@
       <c r="B5" s="2">
         <v>44874</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11:37:00</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -509,8 +517,10 @@
       <c r="B6" s="2">
         <v>44684</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10:29:00</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -535,8 +545,10 @@
       <c r="B7" s="2">
         <v>44690</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13:23:00</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -561,8 +573,10 @@
       <c r="B8" s="2">
         <v>44704</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10:38:00</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -587,8 +601,10 @@
       <c r="B9" s="2">
         <v>44706</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11:56:00</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -613,8 +629,10 @@
       <c r="B10" s="2">
         <v>44824</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10:06:00</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -639,8 +657,10 @@
       <c r="B11" s="2">
         <v>44826</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11:36:00</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -665,8 +685,10 @@
       <c r="B12" s="2">
         <v>44749</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>09:35:00</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -691,8 +713,10 @@
       <c r="B13" s="2">
         <v>44754</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11:43:00</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -717,8 +741,10 @@
       <c r="B14" s="2">
         <v>44852</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>09:33:00</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -743,8 +769,10 @@
       <c r="B15" s="2">
         <v>44854</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>11:38:00</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -769,8 +797,10 @@
       <c r="B16" s="2">
         <v>44748</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>09:55:00</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -795,8 +825,10 @@
       <c r="B17" s="2">
         <v>44720</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12:28:00</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -821,8 +853,10 @@
       <c r="B18" s="2">
         <v>44846</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>09:55:00</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -847,8 +881,10 @@
       <c r="B19" s="2">
         <v>44853</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>11:24:00</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -873,8 +909,10 @@
       <c r="B20" s="2">
         <v>44750</v>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>09:58:00</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -899,8 +937,10 @@
       <c r="B21" s="2">
         <v>44755</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>11:45:00</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -925,8 +965,10 @@
       <c r="B22" s="2">
         <v>44855</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>09:36:00</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -951,8 +993,10 @@
       <c r="B23" s="2">
         <v>44859</v>
       </c>
-      <c r="C23">
-        <v>0</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>11:13:00</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -977,8 +1021,10 @@
       <c r="B24" s="2">
         <v>44776</v>
       </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>09:52:00</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1003,8 +1049,10 @@
       <c r="B25" s="2">
         <v>44777</v>
       </c>
-      <c r="C25">
-        <v>0</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>11:37:00</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1029,8 +1077,10 @@
       <c r="B26" s="2">
         <v>44915</v>
       </c>
-      <c r="C26">
-        <v>0</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>09:45:00</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1055,8 +1105,10 @@
       <c r="B27" s="2">
         <v>44944</v>
       </c>
-      <c r="C27">
-        <v>0</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12:12:00</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1081,8 +1133,10 @@
       <c r="B28" s="2">
         <v>44778</v>
       </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>09:51:00</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1107,8 +1161,10 @@
       <c r="B29" s="2">
         <v>44774</v>
       </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>11:40:00</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1133,8 +1189,10 @@
       <c r="B30" s="2">
         <v>44873</v>
       </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>09:20:00</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1159,8 +1217,10 @@
       <c r="B31" s="2">
         <v>44876</v>
       </c>
-      <c r="C31">
-        <v>0</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>11:50:00</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1185,8 +1245,10 @@
       <c r="B32" s="2">
         <v>44792</v>
       </c>
-      <c r="C32">
-        <v>0</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>09:35:00</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1211,8 +1273,10 @@
       <c r="B33" s="2">
         <v>44798</v>
       </c>
-      <c r="C33">
-        <v>0</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>12:27:00</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1237,8 +1301,10 @@
       <c r="B34" s="2">
         <v>44799</v>
       </c>
-      <c r="C34">
-        <v>0</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>08:55:00</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1263,8 +1329,10 @@
       <c r="B35" s="2">
         <v>44797</v>
       </c>
-      <c r="C35">
-        <v>0</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>13:32:00</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1289,8 +1357,10 @@
       <c r="B36" s="2">
         <v>44903</v>
       </c>
-      <c r="C36">
-        <v>0</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>09:46:00</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1315,8 +1385,10 @@
       <c r="B37" s="2">
         <v>44908</v>
       </c>
-      <c r="C37">
-        <v>0</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13:47:00</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1341,8 +1413,10 @@
       <c r="B38" s="2">
         <v>44839</v>
       </c>
-      <c r="C38">
-        <v>0</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>11:55:00</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1367,8 +1441,10 @@
       <c r="B39" s="2">
         <v>44844</v>
       </c>
-      <c r="C39">
-        <v>0</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>13:47:00</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1393,8 +1469,10 @@
       <c r="B40" s="2">
         <v>44945</v>
       </c>
-      <c r="C40">
-        <v>0</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>10:19:00</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1419,8 +1497,10 @@
       <c r="B41" s="2">
         <v>44950</v>
       </c>
-      <c r="C41">
-        <v>0</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>12:53:00</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1445,8 +1525,10 @@
       <c r="B42" s="2">
         <v>44858</v>
       </c>
-      <c r="C42">
-        <v>0</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>10:14:00</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1471,8 +1553,10 @@
       <c r="B43" s="2">
         <v>44959</v>
       </c>
-      <c r="C43">
-        <v>0</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>09:35:00</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1497,8 +1581,10 @@
       <c r="B44" s="2">
         <v>44966</v>
       </c>
-      <c r="C44">
-        <v>0</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>11:46:00</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1523,8 +1609,10 @@
       <c r="B45" s="2">
         <v>44862</v>
       </c>
-      <c r="C45">
-        <v>0</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>09:22:00</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1549,8 +1637,10 @@
       <c r="B46" s="2">
         <v>44866</v>
       </c>
-      <c r="C46">
-        <v>0</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>11:18:00</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1575,8 +1665,10 @@
       <c r="B47" s="2">
         <v>44956</v>
       </c>
-      <c r="C47">
-        <v>0</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>09:31:00</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1601,8 +1693,10 @@
       <c r="B48" s="2">
         <v>44958</v>
       </c>
-      <c r="C48">
-        <v>0</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>11:33:00</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1627,8 +1721,10 @@
       <c r="B49" s="2">
         <v>44930</v>
       </c>
-      <c r="C49">
-        <v>0</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>09:39:00</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1653,8 +1749,10 @@
       <c r="B50" s="2">
         <v>45030</v>
       </c>
-      <c r="C50">
-        <v>0</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>10:15:00</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1679,8 +1777,10 @@
       <c r="B51" s="2">
         <v>44993</v>
       </c>
-      <c r="C51">
-        <v>0</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1705,8 +1805,10 @@
       <c r="B52" s="2">
         <v>44995</v>
       </c>
-      <c r="C52">
-        <v>0</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>11:24:00</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1731,8 +1833,10 @@
       <c r="B53" s="2">
         <v>45111</v>
       </c>
-      <c r="C53">
-        <v>0</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>11:40:00</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1757,8 +1861,10 @@
       <c r="B54" s="2">
         <v>45140</v>
       </c>
-      <c r="C54">
-        <v>0</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>13:04:00</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1783,8 +1889,10 @@
       <c r="B55" s="2">
         <v>44902</v>
       </c>
-      <c r="C55">
-        <v>0</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>09:46:00</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1809,8 +1917,10 @@
       <c r="B56" s="2">
         <v>44881</v>
       </c>
-      <c r="C56">
-        <v>0</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>11:27:00</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1835,8 +1945,10 @@
       <c r="B57" s="2">
         <v>44998</v>
       </c>
-      <c r="C57">
-        <v>0</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>09:17:00</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1861,8 +1973,10 @@
       <c r="B58" s="2">
         <v>45001</v>
       </c>
-      <c r="C58">
-        <v>0</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>12:01:00</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1887,8 +2001,10 @@
       <c r="B59" s="2">
         <v>44935</v>
       </c>
-      <c r="C59">
-        <v>0</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>10:10:00</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1913,8 +2029,10 @@
       <c r="B60" s="2">
         <v>44938</v>
       </c>
-      <c r="C60">
-        <v>0</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>13:51:00</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1939,8 +2057,10 @@
       <c r="B61" s="2">
         <v>45034</v>
       </c>
-      <c r="C61">
-        <v>0</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>09:34:00</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1965,8 +2085,10 @@
       <c r="B62" s="2">
         <v>45036</v>
       </c>
-      <c r="C62">
-        <v>0</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>10:54:00</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1991,8 +2113,10 @@
       <c r="B63" s="2">
         <v>44949</v>
       </c>
-      <c r="C63">
-        <v>0</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>11:56:00</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2017,8 +2141,10 @@
       <c r="B64" s="2">
         <v>44951</v>
       </c>
-      <c r="C64">
-        <v>0</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>12:47:00</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2043,8 +2169,10 @@
       <c r="B65" s="2">
         <v>45043</v>
       </c>
-      <c r="C65">
-        <v>0</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>10:05:00</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2069,8 +2197,10 @@
       <c r="B66" s="2">
         <v>45054</v>
       </c>
-      <c r="C66">
-        <v>0</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>11:28:00</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2095,8 +2225,10 @@
       <c r="B67" s="2">
         <v>44963</v>
       </c>
-      <c r="C67">
-        <v>0</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>09:41:00</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2121,8 +2253,10 @@
       <c r="B68" s="2">
         <v>44965</v>
       </c>
-      <c r="C68">
-        <v>0</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>11:20:00</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2147,8 +2281,10 @@
       <c r="B69" s="2">
         <v>45068</v>
       </c>
-      <c r="C69">
-        <v>0</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>09:31:00</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2173,8 +2309,10 @@
       <c r="B70" s="2">
         <v>45071</v>
       </c>
-      <c r="C70">
-        <v>0</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>11:29:00</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2199,8 +2337,10 @@
       <c r="B71" s="2">
         <v>44966</v>
       </c>
-      <c r="C71">
-        <v>0</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>11:49:00</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2225,8 +2365,10 @@
       <c r="B72" s="2">
         <v>44980</v>
       </c>
-      <c r="C72">
-        <v>0</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>12:46:00</t>
+        </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2251,8 +2393,10 @@
       <c r="B73" s="2">
         <v>45091</v>
       </c>
-      <c r="C73">
-        <v>0</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>10:32:00</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2277,8 +2421,10 @@
       <c r="B74" s="2">
         <v>45098</v>
       </c>
-      <c r="C74">
-        <v>0</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>14:23:00</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2303,8 +2449,10 @@
       <c r="B75" s="2">
         <v>45061</v>
       </c>
-      <c r="C75">
-        <v>0</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>09:28:00</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2329,8 +2477,10 @@
       <c r="B76" s="2">
         <v>45071</v>
       </c>
-      <c r="C76">
-        <v>0</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>13:14:00</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2355,8 +2505,10 @@
       <c r="B77" s="2">
         <v>44981</v>
       </c>
-      <c r="C77">
-        <v>0</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>09:06:00</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2381,8 +2533,10 @@
       <c r="B78" s="2">
         <v>44985</v>
       </c>
-      <c r="C78">
-        <v>0</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>11:20:00</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2407,8 +2561,10 @@
       <c r="B79" s="2">
         <v>45083</v>
       </c>
-      <c r="C79">
-        <v>0</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>09:32:00</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2433,8 +2589,10 @@
       <c r="B80" s="2">
         <v>45086</v>
       </c>
-      <c r="C80">
-        <v>0</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>11:16:00</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2459,8 +2617,10 @@
       <c r="B81" s="2">
         <v>44992</v>
       </c>
-      <c r="C81">
-        <v>0</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>08:42:00</t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2485,8 +2645,10 @@
       <c r="B82" s="2">
         <v>45000</v>
       </c>
-      <c r="C82">
-        <v>0</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>10:40:00</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2511,8 +2673,10 @@
       <c r="B83" s="2">
         <v>45092</v>
       </c>
-      <c r="C83">
-        <v>0</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>08:32:00</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2537,8 +2701,10 @@
       <c r="B84" s="2">
         <v>45099</v>
       </c>
-      <c r="C84">
-        <v>0</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>11:47:00</t>
+        </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2563,8 +2729,10 @@
       <c r="B85" s="2">
         <v>45019</v>
       </c>
-      <c r="C85">
-        <v>0</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>11:07:00</t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2589,8 +2757,10 @@
       <c r="B86" s="2">
         <v>45009</v>
       </c>
-      <c r="C86">
-        <v>0</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>14:33:00</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2615,8 +2785,10 @@
       <c r="B87" s="2">
         <v>45114</v>
       </c>
-      <c r="C87">
-        <v>0</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>09:22:00</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2641,8 +2813,10 @@
       <c r="B88" s="2">
         <v>45107</v>
       </c>
-      <c r="C88">
-        <v>0</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>11:35:00</t>
+        </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2667,8 +2841,10 @@
       <c r="B89" s="2">
         <v>45009</v>
       </c>
-      <c r="C89">
-        <v>0</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>09:29:00</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2693,8 +2869,10 @@
       <c r="B90" s="2">
         <v>45016</v>
       </c>
-      <c r="C90">
-        <v>0</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>11:17:00</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2719,8 +2897,10 @@
       <c r="B91" s="2">
         <v>45117</v>
       </c>
-      <c r="C91">
-        <v>0</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>09:34:00</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2745,8 +2925,10 @@
       <c r="B92" s="2">
         <v>45121</v>
       </c>
-      <c r="C92">
-        <v>0</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>11:48:00</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2771,8 +2953,10 @@
       <c r="B93" s="2">
         <v>45015</v>
       </c>
-      <c r="C93">
-        <v>0</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>09:37:00</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2797,8 +2981,10 @@
       <c r="B94" s="2">
         <v>45019</v>
       </c>
-      <c r="C94">
-        <v>0</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>11:49:00</t>
+        </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2823,8 +3009,10 @@
       <c r="B95" s="2">
         <v>45112</v>
       </c>
-      <c r="C95">
-        <v>0</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>09:47:00</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2849,8 +3037,10 @@
       <c r="B96" s="2">
         <v>45028</v>
       </c>
-      <c r="C96">
-        <v>0</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>09:38:00</t>
+        </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2875,8 +3065,10 @@
       <c r="B97" s="2">
         <v>45029</v>
       </c>
-      <c r="C97">
-        <v>0</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>11:21:00</t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2901,8 +3093,10 @@
       <c r="B98" s="2">
         <v>45141</v>
       </c>
-      <c r="C98">
-        <v>0</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>10:25:00</t>
+        </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2927,8 +3121,10 @@
       <c r="B99" s="2">
         <v>45034</v>
       </c>
-      <c r="C99">
-        <v>0</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2953,8 +3149,10 @@
       <c r="B100" s="2">
         <v>45044</v>
       </c>
-      <c r="C100">
-        <v>0</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>12:47:00</t>
+        </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2979,8 +3177,10 @@
       <c r="B101" s="2">
         <v>45139</v>
       </c>
-      <c r="C101">
-        <v>0</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>11:32:00</t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3005,8 +3205,10 @@
       <c r="B102" s="2">
         <v>45142</v>
       </c>
-      <c r="C102">
-        <v>0</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>12:36:00</t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3031,8 +3233,10 @@
       <c r="B103" s="2">
         <v>45124</v>
       </c>
-      <c r="C103">
-        <v>0</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>09:38:00</t>
+        </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3057,8 +3261,10 @@
       <c r="B104" s="2">
         <v>45138</v>
       </c>
-      <c r="C104">
-        <v>0</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>13:17:00</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3083,8 +3289,10 @@
       <c r="B105" s="2">
         <v>45222</v>
       </c>
-      <c r="C105">
-        <v>0</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>11:11:00</t>
+        </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3109,8 +3317,10 @@
       <c r="B106" s="2">
         <v>45139</v>
       </c>
-      <c r="C106">
-        <v>0</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>09:01:00</t>
+        </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3135,8 +3345,10 @@
       <c r="B107" s="2">
         <v>45147</v>
       </c>
-      <c r="C107">
-        <v>0</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>12:24:00</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3161,8 +3373,10 @@
       <c r="B108" s="2">
         <v>45243</v>
       </c>
-      <c r="C108">
-        <v>0</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>09:49:00</t>
+        </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3187,8 +3401,10 @@
       <c r="B109" s="2">
         <v>45250</v>
       </c>
-      <c r="C109">
-        <v>0</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>11:36:00</t>
+        </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3213,8 +3429,10 @@
       <c r="B110" s="2">
         <v>45149</v>
       </c>
-      <c r="C110">
-        <v>0</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>07:51:00</t>
+        </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3239,8 +3457,10 @@
       <c r="B111" s="2">
         <v>45170</v>
       </c>
-      <c r="C111">
-        <v>0</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>11:14:00</t>
+        </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3265,8 +3485,10 @@
       <c r="B112" s="2">
         <v>45250</v>
       </c>
-      <c r="C112">
-        <v>0</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>09:37:00</t>
+        </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3291,8 +3513,10 @@
       <c r="B113" s="2">
         <v>45254</v>
       </c>
-      <c r="C113">
-        <v>0</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>10:43:00</t>
+        </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3317,8 +3541,10 @@
       <c r="B114" s="2">
         <v>45146</v>
       </c>
-      <c r="C114">
-        <v>0</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>10:12:00</t>
+        </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3343,8 +3569,10 @@
       <c r="B115" s="2">
         <v>45148</v>
       </c>
-      <c r="C115">
-        <v>0</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>10:28:00</t>
+        </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3369,8 +3597,10 @@
       <c r="B116" s="2">
         <v>45236</v>
       </c>
-      <c r="C116">
-        <v>0</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>09:51:00</t>
+        </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3395,8 +3625,10 @@
       <c r="B117" s="2">
         <v>45240</v>
       </c>
-      <c r="C117">
-        <v>0</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>13:17:00</t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3421,8 +3653,10 @@
       <c r="B118" s="2">
         <v>45161</v>
       </c>
-      <c r="C118">
-        <v>0</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>08:39:00</t>
+        </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3447,8 +3681,10 @@
       <c r="B119" s="2">
         <v>45167</v>
       </c>
-      <c r="C119">
-        <v>0</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>10:34:00</t>
+        </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3473,8 +3709,10 @@
       <c r="B120" s="2">
         <v>45272</v>
       </c>
-      <c r="C120">
-        <v>0</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>09:16:00</t>
+        </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3499,8 +3737,10 @@
       <c r="B121" s="2">
         <v>45279</v>
       </c>
-      <c r="C121">
-        <v>0</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>10:22:00</t>
+        </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3525,8 +3765,10 @@
       <c r="B122" s="2">
         <v>45176</v>
       </c>
-      <c r="C122">
-        <v>0</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>10:56:00</t>
+        </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3551,8 +3793,10 @@
       <c r="B123" s="2">
         <v>45190</v>
       </c>
-      <c r="C123">
-        <v>0</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>11:50:00</t>
+        </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3577,8 +3821,10 @@
       <c r="B124" s="2">
         <v>45273</v>
       </c>
-      <c r="C124">
-        <v>0</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3603,8 +3849,10 @@
       <c r="B125" s="2">
         <v>45182</v>
       </c>
-      <c r="C125">
-        <v>0</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>09:58:00</t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3629,8 +3877,10 @@
       <c r="B126" s="2">
         <v>45187</v>
       </c>
-      <c r="C126">
-        <v>0</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>11:37:00</t>
+        </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3655,8 +3905,10 @@
       <c r="B127" s="2">
         <v>45273</v>
       </c>
-      <c r="C127">
-        <v>0</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>09:33:00</t>
+        </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3681,8 +3933,10 @@
       <c r="B128" s="2">
         <v>45275</v>
       </c>
-      <c r="C128">
-        <v>0</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>11:26:00</t>
+        </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3707,8 +3961,10 @@
       <c r="B129" s="2">
         <v>45181</v>
       </c>
-      <c r="C129">
-        <v>0</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>10:03:00</t>
+        </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3733,8 +3989,10 @@
       <c r="B130" s="2">
         <v>45183</v>
       </c>
-      <c r="C130">
-        <v>0</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>10:41:00</t>
+        </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3759,8 +4017,10 @@
       <c r="B131" s="2">
         <v>45266</v>
       </c>
-      <c r="C131">
-        <v>0</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>08:54:00</t>
+        </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3785,8 +4045,10 @@
       <c r="B132" s="2">
         <v>45267</v>
       </c>
-      <c r="C132">
-        <v>0</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>10:29:00</t>
+        </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3811,8 +4073,10 @@
       <c r="B133" s="2">
         <v>45189</v>
       </c>
-      <c r="C133">
-        <v>0</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3837,8 +4101,10 @@
       <c r="B134" s="2">
         <v>45191</v>
       </c>
-      <c r="C134">
-        <v>0</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>12:50:00</t>
+        </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3863,8 +4129,10 @@
       <c r="B135" s="2">
         <v>45295</v>
       </c>
-      <c r="C135">
-        <v>0</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>09:57:00</t>
+        </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3889,8 +4157,10 @@
       <c r="B136" s="2">
         <v>45197</v>
       </c>
-      <c r="C136">
-        <v>0</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>10:17:00</t>
+        </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3915,8 +4185,10 @@
       <c r="B137" s="2">
         <v>45203</v>
       </c>
-      <c r="C137">
-        <v>0</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>09:36:00</t>
+        </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3941,8 +4213,10 @@
       <c r="B138" s="2">
         <v>45210</v>
       </c>
-      <c r="C138">
-        <v>0</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>13:39:00</t>
+        </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3967,8 +4241,10 @@
       <c r="B139" s="2">
         <v>45321</v>
       </c>
-      <c r="C139">
-        <v>0</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>09:47:00</t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3993,8 +4269,10 @@
       <c r="B140" s="2">
         <v>45317</v>
       </c>
-      <c r="C140">
-        <v>0</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>14:12:00</t>
+        </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4019,8 +4297,10 @@
       <c r="B141" s="2">
         <v>45209</v>
       </c>
-      <c r="C141">
-        <v>0</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>09:46:00</t>
+        </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -4045,8 +4325,10 @@
       <c r="B142" s="2">
         <v>45223</v>
       </c>
-      <c r="C142">
-        <v>0</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>14:08:00</t>
+        </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -4071,8 +4353,10 @@
       <c r="B143" s="2">
         <v>45313</v>
       </c>
-      <c r="C143">
-        <v>0</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>08:39:00</t>
+        </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4097,8 +4381,10 @@
       <c r="B144" s="2">
         <v>45316</v>
       </c>
-      <c r="C144">
-        <v>0</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>10:08:00</t>
+        </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4123,8 +4409,10 @@
       <c r="B145" s="2">
         <v>45215</v>
       </c>
-      <c r="C145">
-        <v>0</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>11:24:00</t>
+        </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4149,8 +4437,10 @@
       <c r="B146" s="2">
         <v>45217</v>
       </c>
-      <c r="C146">
-        <v>0</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>11:27:00</t>
+        </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4175,8 +4465,10 @@
       <c r="B147" s="2">
         <v>45315</v>
       </c>
-      <c r="C147">
-        <v>0</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>09:40:00</t>
+        </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4201,8 +4493,10 @@
       <c r="B148" s="2">
         <v>45317</v>
       </c>
-      <c r="C148">
-        <v>0</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>11:26:00</t>
+        </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4227,8 +4521,10 @@
       <c r="B149" s="2">
         <v>45222</v>
       </c>
-      <c r="C149">
-        <v>0</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4253,8 +4549,10 @@
       <c r="B150" s="2">
         <v>45223</v>
       </c>
-      <c r="C150">
-        <v>0</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>12:52:00</t>
+        </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4279,8 +4577,10 @@
       <c r="B151" s="2">
         <v>45314</v>
       </c>
-      <c r="C151">
-        <v>0</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>08:43:00</t>
+        </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4305,8 +4605,10 @@
       <c r="B152" s="2">
         <v>45317</v>
       </c>
-      <c r="C152">
-        <v>0</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>11:53:00</t>
+        </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4331,8 +4633,10 @@
       <c r="B153" s="2">
         <v>45230</v>
       </c>
-      <c r="C153">
-        <v>0</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>09:56:00</t>
+        </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4357,8 +4661,10 @@
       <c r="B154" s="2">
         <v>45232</v>
       </c>
-      <c r="C154">
-        <v>0</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>11:10:00</t>
+        </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4383,8 +4689,10 @@
       <c r="B155" s="2">
         <v>45331</v>
       </c>
-      <c r="C155">
-        <v>0</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>10:56:00</t>
+        </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4409,8 +4717,10 @@
       <c r="B156" s="2">
         <v>45338</v>
       </c>
-      <c r="C156">
-        <v>0</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>12:08:00</t>
+        </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4435,8 +4745,10 @@
       <c r="B157" s="2">
         <v>45252</v>
       </c>
-      <c r="C157">
-        <v>0</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>11:35:00</t>
+        </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4461,8 +4773,10 @@
       <c r="B158" s="2">
         <v>45258</v>
       </c>
-      <c r="C158">
-        <v>0</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>12:50:00</t>
+        </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4487,8 +4801,10 @@
       <c r="B159" s="2">
         <v>45351</v>
       </c>
-      <c r="C159">
-        <v>0</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>09:24:00</t>
+        </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4513,8 +4829,10 @@
       <c r="B160" s="2">
         <v>45366</v>
       </c>
-      <c r="C160">
-        <v>0</v>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>11:55:00</t>
+        </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4539,8 +4857,10 @@
       <c r="B161" s="2">
         <v>45258</v>
       </c>
-      <c r="C161">
-        <v>0</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>09:19:00</t>
+        </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4565,8 +4885,10 @@
       <c r="B162" s="2">
         <v>45266</v>
       </c>
-      <c r="C162">
-        <v>0</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>11:55:00</t>
+        </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4591,8 +4913,10 @@
       <c r="B163" s="2">
         <v>45379</v>
       </c>
-      <c r="C163">
-        <v>0</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>08:56:00</t>
+        </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4617,8 +4941,10 @@
       <c r="B164" s="2">
         <v>45257</v>
       </c>
-      <c r="C164">
-        <v>0</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>09:58:00</t>
+        </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4643,8 +4969,10 @@
       <c r="B165" s="2">
         <v>45259</v>
       </c>
-      <c r="C165">
-        <v>0</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>13:13:00</t>
+        </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4669,8 +4997,10 @@
       <c r="B166" s="2">
         <v>45357</v>
       </c>
-      <c r="C166">
-        <v>0</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>11:13:00</t>
+        </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4695,8 +5025,10 @@
       <c r="B167" s="2">
         <v>45279</v>
       </c>
-      <c r="C167">
-        <v>0</v>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>12:24:00</t>
+        </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4721,8 +5053,10 @@
       <c r="B168" s="2">
         <v>45369</v>
       </c>
-      <c r="C168">
-        <v>0</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>09:45:00</t>
+        </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4747,8 +5081,10 @@
       <c r="B169" s="2">
         <v>45379</v>
       </c>
-      <c r="C169">
-        <v>0</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4773,8 +5109,10 @@
       <c r="B170" s="2">
         <v>45265</v>
       </c>
-      <c r="C170">
-        <v>0</v>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>09:49:00</t>
+        </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4799,8 +5137,10 @@
       <c r="B171" s="2">
         <v>45268</v>
       </c>
-      <c r="C171">
-        <v>0</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>11:39:00</t>
+        </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4825,8 +5165,10 @@
       <c r="B172" s="2">
         <v>45265</v>
       </c>
-      <c r="C172">
-        <v>0</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>08:57:00</t>
+        </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4851,8 +5193,10 @@
       <c r="B173" s="2">
         <v>45267</v>
       </c>
-      <c r="C173">
-        <v>0</v>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>11:23:00</t>
+        </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4877,8 +5221,10 @@
       <c r="B174" s="2">
         <v>45387</v>
       </c>
-      <c r="C174">
-        <v>0</v>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>09:49:00</t>
+        </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4903,8 +5249,10 @@
       <c r="B175" s="2">
         <v>45373</v>
       </c>
-      <c r="C175">
-        <v>0</v>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>11:31:00</t>
+        </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4929,8 +5277,10 @@
       <c r="B176" s="2">
         <v>45274</v>
       </c>
-      <c r="C176">
-        <v>0</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>09:28:00</t>
+        </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4955,8 +5305,10 @@
       <c r="B177" s="2">
         <v>45274</v>
       </c>
-      <c r="C177">
-        <v>0</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>10:55:00</t>
+        </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4981,8 +5333,10 @@
       <c r="B178" s="2">
         <v>45281</v>
       </c>
-      <c r="C178">
-        <v>0</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>15:01:00</t>
+        </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -5007,8 +5361,10 @@
       <c r="B179" s="2">
         <v>45379</v>
       </c>
-      <c r="C179">
-        <v>0</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>10:40:00</t>
+        </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -5033,8 +5389,10 @@
       <c r="B180" s="2">
         <v>45373</v>
       </c>
-      <c r="C180">
-        <v>0</v>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>12:40:00</t>
+        </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -5059,8 +5417,10 @@
       <c r="B181" s="2">
         <v>45301</v>
       </c>
-      <c r="C181">
-        <v>0</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>09:43:00</t>
+        </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -5085,8 +5445,10 @@
       <c r="B182" s="2">
         <v>45303</v>
       </c>
-      <c r="C182">
-        <v>0</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>11:23:00</t>
+        </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -5111,8 +5473,10 @@
       <c r="B183" s="2">
         <v>45397</v>
       </c>
-      <c r="C183">
-        <v>0</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>08:59:00</t>
+        </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5137,8 +5501,10 @@
       <c r="B184" s="2">
         <v>45398</v>
       </c>
-      <c r="C184">
-        <v>0</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>11:31:00</t>
+        </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
